--- a/D项目/财务资料/账本/私帐资金流2018.xlsx
+++ b/D项目/财务资料/账本/私帐资金流2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -46,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,13 +405,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="G3">
+        <f>G2+E3-F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="0">G3+E4-F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -360,6 +529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/D项目/财务资料/账本/私帐资金流2018.xlsx
+++ b/D项目/财务资料/账本/私帐资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,91 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180801</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180802</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180803</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -414,6 +499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,57 +547,66 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3">
+        <v>20180828</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>50000</v>
+      </c>
       <c r="G3">
         <f>G2+E3-F3</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4">
+        <v>20180828</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
       <c r="G4">
         <f t="shared" ref="G4:G11" si="0">G3+E4-F4</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5">
+        <v>20180828</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/D项目/财务资料/账本/私帐资金流2018.xlsx
+++ b/D项目/财务资料/账本/私帐资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,60 @@
         <charset val="134"/>
       </rPr>
       <t>180803</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180804</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付房租定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>180805</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -584,7 +638,7 @@
         <v>50000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G11" si="0">G3+E4-F4</f>
+        <f t="shared" ref="G4:G8" si="0">G3+E4-F4</f>
         <v>100000</v>
       </c>
     </row>
@@ -607,6 +661,69 @@
       <c r="G5">
         <f t="shared" si="0"/>
         <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>20180829</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>50000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>20180829</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>180801</v>
+      </c>
+      <c r="F7">
+        <v>18000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>20180829</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>50000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>232000</v>
       </c>
     </row>
   </sheetData>

--- a/D项目/财务资料/账本/私帐资金流2018.xlsx
+++ b/D项目/财务资料/账本/私帐资金流2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
       </rPr>
       <t>180805</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有借款，后冲账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,13 +552,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -703,6 +708,9 @@
       <c r="G7">
         <f t="shared" si="0"/>
         <v>182000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/D项目/财务资料/账本/私帐资金流2018.xlsx
+++ b/D项目/财务资料/账本/私帐资金流2018.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="8月明细账" sheetId="1" r:id="rId1"/>
+    <sheet name="9月明细账" sheetId="2" r:id="rId2"/>
+    <sheet name="10月明细账" sheetId="3" r:id="rId3"/>
+    <sheet name="11月明细账" sheetId="4" r:id="rId4"/>
+    <sheet name="12月明细账" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +45,6 @@
   </si>
   <si>
     <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,6 +200,30 @@
   </si>
   <si>
     <t>有借款，后冲账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月29日员工餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月29日上岛咖啡活动费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -582,25 +604,21 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -610,13 +628,13 @@
         <v>20180828</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>50000</v>
@@ -631,19 +649,19 @@
         <v>20180828</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>50000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" si="0">G3+E4-F4</f>
+        <f t="shared" ref="G4:G10" si="0">G3+E4-F4</f>
         <v>100000</v>
       </c>
     </row>
@@ -652,13 +670,13 @@
         <v>20180828</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>50000</v>
@@ -673,13 +691,13 @@
         <v>20180829</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -694,10 +712,10 @@
         <v>20180829</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>180801</v>
@@ -710,7 +728,7 @@
         <v>182000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -718,13 +736,13 @@
         <v>20180829</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>50000</v>
@@ -732,6 +750,75 @@
       <c r="G8">
         <f t="shared" si="0"/>
         <v>232000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>20180831</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>180802</v>
+      </c>
+      <c r="F9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>231842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>20180831</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>180803</v>
+      </c>
+      <c r="F10">
+        <v>94</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>231748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12">
+        <f>SUM(E3:E10)</f>
+        <v>250000</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F3:F10)</f>
+        <v>18252</v>
+      </c>
+      <c r="G12">
+        <f>E12-F12</f>
+        <v>231748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f>G10</f>
+        <v>231748</v>
       </c>
     </row>
   </sheetData>
@@ -743,12 +830,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>231748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12">
+        <f>SUM(E3:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F3:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>E12-F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,12 +917,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12">
+        <f>SUM(E3:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F3:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>E12-F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
